--- a/1.pandaBasic.xlsx
+++ b/1.pandaBasic.xlsx
@@ -1,13 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\ML-Study\Notes\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0EEDCA-475C-4644-8B05-284BCACE5B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="989" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="describe" sheetId="2" r:id="rId2"/>
+    <sheet name="sort" sheetId="3" r:id="rId3"/>
+    <sheet name="drop" sheetId="5" r:id="rId4"/>
+    <sheet name="operation" sheetId="7" r:id="rId5"/>
+    <sheet name="groupby" sheetId="9" r:id="rId6"/>
+    <sheet name="string" sheetId="10" r:id="rId7"/>
+    <sheet name="pivot" sheetId="11" r:id="rId8"/>
+    <sheet name="null" sheetId="13" r:id="rId9"/>
+    <sheet name="dummy" sheetId="15" r:id="rId10"/>
+    <sheet name="date" sheetId="16" r:id="rId11"/>
+    <sheet name="duplicate" sheetId="17" r:id="rId12"/>
+    <sheet name="alignment" sheetId="18" r:id="rId13"/>
+    <sheet name="hierarcal" sheetId="19" r:id="rId14"/>
+    <sheet name="column" sheetId="20" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,8 +38,328 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="105">
+  <si>
+    <t>import pandas as pd</t>
+  </si>
+  <si>
+    <t>nifty=pd.read_csv("niftydata.csv",sep=",")</t>
+  </si>
+  <si>
+    <t>nifty.head()</t>
+  </si>
+  <si>
+    <t>nifty=pd.read_csv("niftydata.csv",sep=",",nrows=6)</t>
+  </si>
+  <si>
+    <t>nifty</t>
+  </si>
+  <si>
+    <t>nifty=pd.read_csv("niftydata.csv",sep=",",nrows=6,header=None)</t>
+  </si>
+  <si>
+    <t>nifty=pd.read_csv("niftydata.csv",sep=",",nrows=6,header=None,names=["Trade_date","Closing_Price"])</t>
+  </si>
+  <si>
+    <t>loc="niftydata.csv"</t>
+  </si>
+  <si>
+    <t>nifty=pd.read_csv(loc,sep=",",nrows=6)</t>
+  </si>
+  <si>
+    <t>order=pd.read_excel("SuperstoreSales.xls",0)</t>
+  </si>
+  <si>
+    <t>order.head(2)</t>
+  </si>
+  <si>
+    <t>order.describe()</t>
+  </si>
+  <si>
+    <t>order.describe(include='all')</t>
+  </si>
+  <si>
+    <t>order.describe(include=['object','float'])</t>
+  </si>
+  <si>
+    <t>order[order["Order Priority"]=='High'].describe()</t>
+  </si>
+  <si>
+    <t>order[(order["Order Priority"]=='High') &amp; (order["Sales"]&gt;=10000)].describe()</t>
+  </si>
+  <si>
+    <t>order['Sales'].sort_values(ascending=False).head(2)</t>
+  </si>
+  <si>
+    <t>order.sort_values('Sales',ascending=False).head(2)</t>
+  </si>
+  <si>
+    <t>order.sort_values(['Sales','Discount'],ascending=False).head(2)</t>
+  </si>
+  <si>
+    <t>order.filter(['Sales','Discount'])</t>
+  </si>
+  <si>
+    <t>order[(order['Discount']==0.04) &amp; (order['Order Priority'].isin(['High','Low']))].head(5)</t>
+  </si>
+  <si>
+    <t>order.drop(['Row ID'],axis=1,inplace=True)</t>
+  </si>
+  <si>
+    <t>order.drop([1,2],axis=0,inplace=True)</t>
+  </si>
+  <si>
+    <t>order_subset = DataFrame(order,columns=['Order Date', 'Order Priority', 'Order Quantity','Sales', 'Discount', 'Ship Mode', 'Profit','Return'])</t>
+  </si>
+  <si>
+    <t>order_subset.drop(['Order Date'],axis=1,inplace=True)</t>
+  </si>
+  <si>
+    <t>del order_subset['Order Priority']</t>
+  </si>
+  <si>
+    <t>order['Discount']+order['Unit Price']</t>
+  </si>
+  <si>
+    <t>order['Unit Price'].values</t>
+  </si>
+  <si>
+    <t>from pandas import DataFrame</t>
+  </si>
+  <si>
+    <t>xl_file=pd.ExcelFile("SuperstoreSales.xls")</t>
+  </si>
+  <si>
+    <t>order=xl_file.parse('Orders')</t>
+  </si>
+  <si>
+    <t>Returns=xl_file.parse('Returns')</t>
+  </si>
+  <si>
+    <t>Users=xl_file.parse('Users')</t>
+  </si>
+  <si>
+    <t>order.groupby('Customer Segment').Sales.sum()</t>
+  </si>
+  <si>
+    <t>order.groupby('Customer Segment').Profit.sum()</t>
+  </si>
+  <si>
+    <t>order.groupby('Product Category').Profit.sum()</t>
+  </si>
+  <si>
+    <t>order['Product Name'].value_counts()</t>
+  </si>
+  <si>
+    <t>order['Product Name'].nunique()</t>
+  </si>
+  <si>
+    <t>order.groupby('Product Category').Profit.sum().nlargest(2)</t>
+  </si>
+  <si>
+    <t>order.groupby('Product Category').Profit.sum().nsmallest(2)</t>
+  </si>
+  <si>
+    <t>order.groupby('Customer Segment').Sales.agg(["sum","mean","max"])</t>
+  </si>
+  <si>
+    <t>order.groupby(['Customer Segment','Ship Mode']).Sales.agg(["sum","mean","max"])</t>
+  </si>
+  <si>
+    <t>order.groupby(['Customer Segment','Ship Mode'])['Sales','Profit'].agg(["sum","mean","max"])</t>
+  </si>
+  <si>
+    <t>order.groupby('Customer Segment').agg(["sum","mean","max"])</t>
+  </si>
+  <si>
+    <t>order['Order Priority'].str.upper()</t>
+  </si>
+  <si>
+    <t>order['Order Priority'].str.isupper()</t>
+  </si>
+  <si>
+    <t>order['Order Priority'].str.istitle()</t>
+  </si>
+  <si>
+    <t>order['Order Priority']=order['Order Priority'].str.upper()</t>
+  </si>
+  <si>
+    <t>order['Order Priority'].str.contains('NOT SPECIFIED')</t>
+  </si>
+  <si>
+    <t>order['Order Priority'].str.replace('NOT SPECIFIED','NA')</t>
+  </si>
+  <si>
+    <t>pd.pivot_table(order,'Sales',index=['Order Priority','Ship Mode'],aggfunc=np.mean,margins=True,margins_name='Total')</t>
+  </si>
+  <si>
+    <t>pd.pivot_table(order,'Sales',index=['Order Priority'],columns=['Ship Mode'],aggfunc=np.mean,margins=True,margins_name='Total')</t>
+  </si>
+  <si>
+    <t>pd.describe_option()</t>
+  </si>
+  <si>
+    <t>pd.get_option('display.max_rows'),pd.get_option('display.max_columns')</t>
+  </si>
+  <si>
+    <t>pd.set_option('display.max_rows',None),pd.set_option('display.max_columns',None)</t>
+  </si>
+  <si>
+    <t>pd.reset_option('display.max_rows'),pd.reset_option('display.max_columns')</t>
+  </si>
+  <si>
+    <t>order.isnull()</t>
+  </si>
+  <si>
+    <t>order.columns[order.isnull().sum()&gt;1]</t>
+  </si>
+  <si>
+    <t>order[order.columns[order.isnull().sum()&gt;1]]</t>
+  </si>
+  <si>
+    <t>order[order['Product Base Margin'].isnull()]['Product Base Margin']</t>
+  </si>
+  <si>
+    <t>order[order[order.columns[order.isnull().sum()&gt;1][0]].isnull()][order.columns[order.isnull().sum()&gt;1][0]]</t>
+  </si>
+  <si>
+    <t>order.dropna(how='any').shape</t>
+  </si>
+  <si>
+    <t>order.dropna(how='all',subset=['Product Base Margin']).shape</t>
+  </si>
+  <si>
+    <t>order.dropna(how='all',subset=order.columns[order.isnull().sum()&gt;1]).shape</t>
+  </si>
+  <si>
+    <t>import numpy as np</t>
+  </si>
+  <si>
+    <t>null_values=pd.Series([1,2.6,np.NaN,4,5.6,np.NaN,7,np.NaN,9.6,np.NaN,10.4])</t>
+  </si>
+  <si>
+    <t>null_values.fillna(method='bfill')</t>
+  </si>
+  <si>
+    <t>null_values.fillna(null_values.mean())</t>
+  </si>
+  <si>
+    <t>null_values.interpolate()</t>
+  </si>
+  <si>
+    <t>ship_dummy=pd.get_dummies(order['Ship Mode']).head()</t>
+  </si>
+  <si>
+    <t>pd.concat([order,ship_dummy],axis=1)</t>
+  </si>
+  <si>
+    <t>order=pd.get_dummies(order,columns=['Ship Mode','Order Priority'],drop_first=True).head()</t>
+  </si>
+  <si>
+    <t>order.dtypes</t>
+  </si>
+  <si>
+    <t>order['Order Date'].dt.dayofyear.head(2)</t>
+  </si>
+  <si>
+    <t>order['Order Date'].dt.dayofweek.head(2)</t>
+  </si>
+  <si>
+    <t>order['Order Date'].dt.weekofyear.head(2)</t>
+  </si>
+  <si>
+    <t>order['Order Date'].dt.day_name().head(2)</t>
+  </si>
+  <si>
+    <t>order.year=order['Order Date'].dt.year</t>
+  </si>
+  <si>
+    <t>order.year.value_counts()</t>
+  </si>
+  <si>
+    <t>order.duplicated()</t>
+  </si>
+  <si>
+    <t>order['Customer Name'].duplicated()</t>
+  </si>
+  <si>
+    <t>order[order['Customer Name'].duplicated(keep='last')]['Customer Name']</t>
+  </si>
+  <si>
+    <t>order['Customer Name'].drop_duplicates().head()</t>
+  </si>
+  <si>
+    <t>order.drop_duplicates(subset=['Customer Name', 'Province'])</t>
+  </si>
+  <si>
+    <t>df1=DataFrame(np.arange(4).reshape(2,2),columns=list('AB'),index=['Prod1','Prod2'])</t>
+  </si>
+  <si>
+    <t>df2=DataFrame(np.arange(9).reshape(3,3),columns=list('ACD'),index=['Prod1','Prod3','Prod4'])</t>
+  </si>
+  <si>
+    <t>df1+df2</t>
+  </si>
+  <si>
+    <t>df1.add(df2,fill_value=0)</t>
+  </si>
+  <si>
+    <t>from pandas import Series</t>
+  </si>
+  <si>
+    <t>ser1=Series([1,2,3,4,5,6],index=[['A','B','C','A','B','C'],[1,1,1,2,2,2]])</t>
+  </si>
+  <si>
+    <t>ser1.index.names=['iddex-0','index-1']</t>
+  </si>
+  <si>
+    <t>ser1.unstack()</t>
+  </si>
+  <si>
+    <t>ser2=ser1.swaplevel()</t>
+  </si>
+  <si>
+    <t>ser2[:,'A']</t>
+  </si>
+  <si>
+    <t>ser2.sort_index(level=0)</t>
+  </si>
+  <si>
+    <t>ser2.sort_index(level=1)</t>
+  </si>
+  <si>
+    <t>ser2.unstack()</t>
+  </si>
+  <si>
+    <t>order.columns=[x.replace(' ','_') for x in order.columns]</t>
+  </si>
+  <si>
+    <t>order.columns=[x.upper() for x in order.columns]</t>
+  </si>
+  <si>
+    <t>ex_pivot=pd.pivot_table(ex_data,values='Value',index=['Customer', 'Quantity'],columns='Product')</t>
+  </si>
+  <si>
+    <t>ex_data=pd.read_excel("ex.xlsx",0)</t>
+  </si>
+  <si>
+    <t># ex_data.columns</t>
+  </si>
+  <si>
+    <t>ex_pivot=pd.pivot_table(ex_data,values='Value',index=['Customer'],columns=['Product', 'Quantity'],fill_value=0)</t>
+  </si>
+  <si>
+    <t>ex_pivot=pd.pivot_table(ex_data,values='Value',index=['Customer'],columns=['Product', 'Quantity'],fill_value=0,aggfunc=sum)</t>
+  </si>
+  <si>
+    <t>ex_pivot=pd.pivot_table(ex_data,values='Value',index=['Customer'],columns=['Quantity','Product'],aggfunc=sum)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -29,15 +369,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -45,12 +391,68 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +732,875 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="93.7109375" customWidth="1"/>
+    <col min="3" max="3" width="2.42578125" customWidth="1"/>
+    <col min="4" max="4" width="78.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CBEEF21-AF23-45D5-8B5D-9758FD4AE9D5}">
+  <dimension ref="B2:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="103" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2300E237-04F7-47E8-B5D3-03100228DA2E}">
+  <dimension ref="B2:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="94.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C652EA6-0814-4DB2-8A6E-8AE131F9D0C8}">
+  <dimension ref="B1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="73.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{355E72FC-450B-4A5B-8F86-73061E49C6EE}">
+  <dimension ref="B1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="88.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3965A06-41D7-4EA5-A3C0-E8705A1E89C5}">
+  <dimension ref="B2:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="100.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AFE9D6A-ABC3-4356-AFE9-5EF5EE4E2B60}">
+  <dimension ref="B2:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="92.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5BCD88D-DC55-495F-A75B-7743A2FA9250}">
+  <dimension ref="B1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="95.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD35C11-72E3-4908-94BA-4DFBD88C65A0}">
+  <dimension ref="B1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="91.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D8F2021-1ECD-44EF-B712-E164958158F3}">
+  <dimension ref="B1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="83.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D9C99E-B3F2-408E-BB07-E194EB53A2F5}">
+  <dimension ref="B2:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="105.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1644A35-6E09-4773-8C38-A8953451F551}">
+  <dimension ref="B1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="108.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{273EB4A2-EC7C-4EB3-AB1E-E7E02400C3A4}">
+  <dimension ref="B2:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="106.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3901A089-A5CC-49F7-B580-2B4D2BA7EAA1}">
+  <dimension ref="B2:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="124" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{446F52B0-75F1-4C17-B8D2-DBF68C608111}">
+  <dimension ref="B2:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="96" customWidth="1"/>
+    <col min="3" max="3" width="71.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>